--- a/public/题.xlsx
+++ b/public/题.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>标题</t>
   </si>
@@ -52,7 +52,82 @@
     <t>A:答案a;B:答案b;C:答案c;D:答案d</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>问题211112</t>
+  </si>
+  <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>问题211113</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>问题211114</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>问题211115</t>
+  </si>
+  <si>
+    <t>问题211116</t>
+  </si>
+  <si>
+    <t>问题211117</t>
+  </si>
+  <si>
+    <t>问题211118</t>
+  </si>
+  <si>
+    <t>B;D</t>
+  </si>
+  <si>
+    <t>问题211119</t>
+  </si>
+  <si>
+    <t>问题211120</t>
+  </si>
+  <si>
+    <t>问题211121</t>
+  </si>
+  <si>
+    <t>问题211122</t>
+  </si>
+  <si>
+    <t>问题211123</t>
+  </si>
+  <si>
+    <t>问题211124</t>
+  </si>
+  <si>
+    <t>问题211125</t>
+  </si>
+  <si>
+    <t>问题211126</t>
+  </si>
+  <si>
+    <t>问题211127</t>
+  </si>
+  <si>
+    <t>问题211128</t>
+  </si>
+  <si>
+    <t>问题211129</t>
+  </si>
+  <si>
+    <t>问题211130</t>
+  </si>
+  <si>
+    <t>问题211131</t>
+  </si>
+  <si>
+    <t>问题211132</t>
   </si>
 </sst>
 </file>
@@ -60,15 +135,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -83,21 +173,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,11 +217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,77 +248,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,6 +302,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -239,31 +326,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +428,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,25 +452,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,85 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +500,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,21 +538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,6 +549,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,31 +579,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,148 +598,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,17 +1069,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="28.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="25.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="3" max="4" width="32.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,6 +1146,300 @@
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/题.xlsx
+++ b/public/题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="11880"/>
+    <workbookView windowWidth="28660" windowHeight="12040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>标题</t>
   </si>
@@ -46,34 +46,37 @@
     <t xml:space="preserve">A;B </t>
   </si>
   <si>
-    <t>问题211111</t>
+    <t>修改的题目</t>
   </si>
   <si>
     <t>A:答案a;B:答案b;C:答案c;D:答案d</t>
   </si>
   <si>
+    <t>A;C</t>
+  </si>
+  <si>
+    <t>问题211112</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>问题211113</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>问题211114</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>问题211115</t>
+  </si>
+  <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>问题211112</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>问题211113</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>问题211114</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>问题211115</t>
   </si>
   <si>
     <t>问题211116</t>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -150,17 +153,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,38 +181,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,24 +280,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,51 +295,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -302,19 +305,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,157 +467,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,8 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,52 +517,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,15 +548,50 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -598,148 +601,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1072,7 +1075,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
@@ -1201,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1209,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1223,7 +1226,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
@@ -1237,13 +1240,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1251,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -1265,7 +1268,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1279,7 +1282,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1293,7 +1296,7 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -1307,7 +1310,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1321,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1335,7 +1338,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -1349,7 +1352,7 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1363,7 +1366,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -1377,7 +1380,7 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1391,7 +1394,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1405,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
@@ -1419,7 +1422,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1433,7 +1436,7 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>

--- a/public/题.xlsx
+++ b/public/题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28660" windowHeight="12040"/>
+    <workbookView windowHeight="17200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>标题</t>
   </si>
@@ -37,100 +37,196 @@
     <t>是否禁用</t>
   </si>
   <si>
-    <t>问题1     12312312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A:答案a;B:答案b;C:答案c </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A;B </t>
-  </si>
-  <si>
-    <t>修改的题目</t>
-  </si>
-  <si>
-    <t>A:答案a;B:答案b;C:答案c;D:答案d</t>
-  </si>
-  <si>
-    <t>A;C</t>
-  </si>
-  <si>
-    <t>问题211112</t>
+    <t>确保到（ ）我国现行标准下农村贫困人口实现脱贫，贫困县全部摘帽，解决区域性整体贫困，做到脱真贫、真脱贫。</t>
+  </si>
+  <si>
+    <t>A:2030年;B:2020年;C:2025年;D:2035年</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>问题211113</t>
+    <t>坚持党的领导、人民当家作主、依法治国有机统一。（ ）是社会主义民主政治的本质特征。</t>
+  </si>
+  <si>
+    <t>A:党的领导;B:人民当家作主;C:依法治国;D:政治体制改革</t>
+  </si>
+  <si>
+    <t>加强人民当家作主制度保障。（ ）是坚持党的领导、人民当家作主、依法治国有机统一的根本政治制度安排。</t>
+  </si>
+  <si>
+    <t>A:人民代表大会制度;B:多党合作和政治协商制度;C:民族区域自治制度;D:基层群众自治制度</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发挥社会主义协商民主重要作用。（ ）是具有中国特色的制度安排，是社会主义协商民主的重要渠道和专门协商机构。  </t>
+  </si>
+  <si>
+    <t>A:政党协商;B:人大协商;C:基层协商;D:人民政协</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深化依法治国实践。成立中央全面（ ）领导小组，加强对法治中国建设的统一领导。 </t>
+  </si>
+  <si>
+    <t>A:深化改革;B:依法治国;C:从严治党;D:司法改革</t>
+  </si>
+  <si>
+    <t>深化机构和行政体制改革。转变政府职能，深化简政放权，创新监管方式，增强政府公信力和执行力，建设人民满意的（ ）政府。</t>
+  </si>
+  <si>
+    <t>A:法治;B:创新型;C:廉洁;D:服务型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">全党必须牢记，（ ）的问题，是检验一个政党、一个政权性质的试金石。 </t>
+  </si>
+  <si>
+    <t>A:为什么人;B:执政宗旨;C:建党宗旨;D:权力来源</t>
+  </si>
+  <si>
+    <t>建设（ ）是中华民族伟大复兴的基础工程。</t>
+  </si>
+  <si>
+    <t>A:经济强国;B:政治强国;C:教育强国;D:文化强国</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>问题211114</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>问题211115</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>问题211116</t>
-  </si>
-  <si>
-    <t>问题211117</t>
-  </si>
-  <si>
-    <t>问题211118</t>
-  </si>
-  <si>
-    <t>B;D</t>
-  </si>
-  <si>
-    <t>问题211119</t>
-  </si>
-  <si>
-    <t>问题211120</t>
-  </si>
-  <si>
-    <t>问题211121</t>
-  </si>
-  <si>
-    <t>问题211122</t>
-  </si>
-  <si>
-    <t>问题211123</t>
-  </si>
-  <si>
-    <t>问题211124</t>
-  </si>
-  <si>
-    <t>问题211125</t>
-  </si>
-  <si>
-    <t>问题211126</t>
-  </si>
-  <si>
-    <t>问题211127</t>
-  </si>
-  <si>
-    <t>问题211128</t>
-  </si>
-  <si>
-    <t>问题211129</t>
-  </si>
-  <si>
-    <t>问题211130</t>
-  </si>
-  <si>
-    <t>问题211131</t>
-  </si>
-  <si>
-    <t>问题211132</t>
+    <t xml:space="preserve">国家安全是安邦定国的重要基石，（ ）是全国各族人民根本利益所在。 </t>
+  </si>
+  <si>
+    <t>A:加快经济发展;B:维护国家统一;C:促进国际合作;D:维护国家安全</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们要坚持人与自然（ ）。  </t>
+  </si>
+  <si>
+    <t>A:和谐相处;B:和睦相处;C:和谐共生;D:和睦共生</t>
+  </si>
+  <si>
+    <t>加快建立绿色生产和消费的法律制度和政策导向，建立健全（ ）的经济体系。</t>
+  </si>
+  <si>
+    <t>A:绿色低碳循环发展;B:绿色节约循环发展;C:绿色低碳节约发展;D:节约低碳循环发展</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加强对生态文明建设的总体设计和组织领导，设立（ ）机构。  </t>
+  </si>
+  <si>
+    <t>A:国有自然资源资产管理和自然环境监管;B:国有自然资源资产管理和自然生态监管;C:国有自然资源资产监管和自然生态管理;D:国有自然环境资产监管和自然生态管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们要牢固树立社会主义生态文明观，推动形成（ ）现代化建设新格局，为保护生态环境作出我们这代人的努力！ </t>
+  </si>
+  <si>
+    <t>A:人与自然和谐共生;B:人与环境和谐发展;C:人与自然和谐发展;D:人与环境和谐共生</t>
+  </si>
+  <si>
+    <t xml:space="preserve">适应世界新军事革命发展趋势和国家安全需求，提高建设质量和效益，确保到二〇二〇年基本实现（ ），（ ）建设取得重大进展，（ ）有大的提升。  </t>
+  </si>
+  <si>
+    <t>A:现代化 信息化 战斗能力;B:机械化 信息化 战斗能力;C:机械化 信息化 战略能力;D:现代化 信息化 战略能力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">力争到二〇三五年（ ）国防和军队现代化，到本世纪中叶把人民军队（ ）世界一流军队。  </t>
+  </si>
+  <si>
+    <t>A:全面实现 基本建成;B:全面实现 全面建成;C:基本实现 基本建成;D:基本实现 全面建成</t>
+  </si>
+  <si>
+    <t>树立（ ）是核心战斗力的思想，推进重大技术创新、自主创新，加强军事人才培养体系建设，建设创新型人民军队。</t>
+  </si>
+  <si>
+    <t>A:科技;B:科技;C:人才;D:技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">军队是要准备打仗的，一切工作都必须坚持（ ）标准，向能打仗、打胜仗聚焦。 </t>
+  </si>
+  <si>
+    <t>A:战斗力;B:斗争力;C:战争力;D:硬实力</t>
+  </si>
+  <si>
+    <t xml:space="preserve">解决台湾问题、实现祖国完全统一，是全体中华儿女（ ），是中华民族（ ）所在。  </t>
+  </si>
+  <si>
+    <t>A:一致愿望 根本利益;B:共同愿望 本质利益;C:一致愿望 本质利益;D:共同愿望 根本利益</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（ ）是两岸关系的政治基础。  </t>
+  </si>
+  <si>
+    <t>A:“九二共识” ;B:反对“台独”;C:一个中国原则;D:和平统一</t>
+  </si>
+  <si>
+    <t xml:space="preserve">我们呼吁，各国人民同心协力，构建人类命运共同体，建设（ ）的世界。  </t>
+  </si>
+  <si>
+    <t>A:持久和平、普遍安全、共同繁荣、开放包容、公平正义;B:持久和平、普遍安全、共同繁荣、公平正义、清洁美丽;C:持久和平、普遍安全、共同繁荣、开放包容、清洁美丽;D:持久和平、普遍安全、公平正义、开放包容、清洁美丽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">深刻认识党面临的（ ）的尖锐性和严峻性，坚持问题导向，保持战略定力，推动全面从严治党向纵深发展。  </t>
+  </si>
+  <si>
+    <t>A:精神懈怠危险、能力不足危险、脱离群众危险、消极腐败危险;B:精神懈怠危险、封闭僵化危险、脱离群众危险、消极腐败危险;C:精神懈怠危险、能力不足危险、官僚主义危险、消极腐败危险;D:精神懈怠危险、能力不足危险、脱离群众危险、腐化堕落危险</t>
+  </si>
+  <si>
+    <t xml:space="preserve">党的（ ）是党的根本性建设，决定党的建设方向和效果。  </t>
+  </si>
+  <si>
+    <t>A:思想建设;B:政治建设;C:组织建设;D:制度建设</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要尊崇党章，严格执行新形势下党内政治生活若干准则，增强党内政治生活的（ ）。  </t>
+  </si>
+  <si>
+    <t>A:政治性、时代性、原则性、战斗性;B:想性、政治性、时代性、原则性;C:政治性、思想性、时代性、原则性;D:政治性、思想性、时代性、战斗性</t>
+  </si>
+  <si>
+    <t>坚决防止和反对（ ），坚决防止和反对宗派主义、圈子文化、码头文化，坚决反对搞两面派、做两面人。</t>
+  </si>
+  <si>
+    <t>A:个人主义、享乐主义、自由主义、本位主义、好人主义;B:个人主义、分散主义、山头主义、本位主义、好人主义;C:个人主义、分散主义、自由主义、本位主义、好人主义;D:个人主义、分散主义、自由主义、本位主义、享乐主义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">（ ）和（ ），是中国共产党人的精神支柱和政治灵魂，也是保持党的团结统一的思想基础。  </t>
+  </si>
+  <si>
+    <t>A:共产主义远大理想 新时代中国特色社会主义共同理想;B:共产主义远大理想 中国特色社会主义共同理想;C:共产主义崇高理想 新时代中国特色社会主义共同理想;D:共产主义崇高理想 中国特色社会主义共同理想</t>
+  </si>
+  <si>
+    <t xml:space="preserve">要坚持党管干部原则，（ ），把好干部标准落到实处。  </t>
+  </si>
+  <si>
+    <t>A:坚持立场坚定、素质过硬，坚持五湖四海、任人唯贤，坚持事业为上、公道正派 ;B:坚持德才兼备、以德为先，坚持立场坚定、素质过硬，坚持事业为上、公道正派;C:坚持德才兼备、以德为先，坚持五湖四海、任人唯贤，坚持立场坚定、素质过硬;D:坚持德才兼备、以德为先，坚持五湖四海、任人唯贤，坚持事业为上、公道正派</t>
+  </si>
+  <si>
+    <t>要以提升（ ）为重点，突出政治功能，把企业、农村、机关、学校、科研院所、街道社区、社会组织等基层党组织建设成为宣传党的主张、贯彻党的决定、领导基层治理、团结动员群众、推动改革发展的坚强战斗堡垒。</t>
+  </si>
+  <si>
+    <t>A:凝聚力;B:领导力;C:组织力;D:战斗力</t>
+  </si>
+  <si>
+    <t>要坚持无禁区、全覆盖、零容忍，坚持（ ），坚持受贿行贿一起查，坚决防止党内形成利益集团。</t>
+  </si>
+  <si>
+    <t>A:重预防、强高压、长震慑;B:重遏制、强高压、长震慑;C:重遏制、不减压、长震慑;D:重遏制、强高压、长威慑</t>
+  </si>
+  <si>
+    <t>增强党自我净化能力，根本靠强化（ ）和（ ）。</t>
+  </si>
+  <si>
+    <t>A:党的自我监督、舆论监督;B:党的自我监督、群众监督;C:党的自我监督、司法监督;D:党的自我监督、民主监督</t>
+  </si>
+  <si>
+    <t xml:space="preserve">推进（ ），建设覆盖纪检监察系统的检举举报平台。强化不敢腐的震慑，扎牢不能腐的笼子，增强不想腐的自觉，通过不懈努力换来海晏河清、朗朗乾坤。  </t>
+  </si>
+  <si>
+    <t>A:共建共融共享;B:互通互惠互利;C:共商共建共享;D:和平合作共赢</t>
   </si>
 </sst>
 </file>
@@ -138,9 +234,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -166,8 +262,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,14 +355,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +363,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,90 +391,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,181 +407,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,26 +604,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,17 +634,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,16 +678,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -601,142 +697,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1072,16 +1168,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="19" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="28.1666666666667" customWidth="1"/>
-    <col min="3" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="114" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1120,7 +1217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1132,9 +1229,6 @@
       </c>
       <c r="D4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1148,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1156,10 +1250,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -1173,10 +1267,10 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1184,13 +1278,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1198,13 +1292,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1212,10 +1306,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1226,13 +1320,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1240,13 +1334,13 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1254,13 +1348,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1268,10 +1362,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1282,13 +1376,13 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1296,13 +1390,13 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1310,13 +1404,13 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1324,13 +1418,13 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1338,13 +1432,13 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1352,10 +1446,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
         <v>14</v>
@@ -1366,13 +1460,13 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1380,13 +1474,13 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1394,13 +1488,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1408,10 +1502,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1422,13 +1516,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1436,13 +1530,111 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
